--- a/biology/Zoologie/Caprellidae/Caprellidae.xlsx
+++ b/biology/Zoologie/Caprellidae/Caprellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Caprellidae sont une famille de crustacés amphipodes également appelés « caprelles ». Les caprelles sont de petits crustacés marins majoritairement détritivores[1] vivant sur les macrophytes (des algues majoritairement), le fond ou les récifs. Leurs larves sont planctoniques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Caprellidae sont une famille de crustacés amphipodes également appelés « caprelles ». Les caprelles sont de petits crustacés marins majoritairement détritivores vivant sur les macrophytes (des algues majoritairement), le fond ou les récifs. Leurs larves sont planctoniques.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leurs espèces sont souvent petites (1 à quelques millimètres) et discrètes, certaines atteignant cependant 2 cm. Elles se confondent généralement par leur mimétisme avec la végétation ou le substrat. On en découvre encore de nouvelles espèces[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leurs espèces sont souvent petites (1 à quelques millimètres) et discrètes, certaines atteignant cependant 2 cm. Elles se confondent généralement par leur mimétisme avec la végétation ou le substrat. On en découvre encore de nouvelles espèces.
 Leur forme évoque celle de certaines mantes religieuses, de par la conformation inhabituelle chez les crustacés de leurs 8 pattes ; 
 4 devant en crochet pour se fixer à un substrat (une algue en général), et pour happer leur nourriture planctonique
 4 derrière, également munies de crochets, pour s'agripper au substrat.
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Récifs, macrophytes : principalement des algues (dont coralligènes).
 </t>
@@ -577,9 +593,11 @@
           <t>Nourriture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite d'une « pullulation » de caprelles en 2003, qui a coïncidé avec une diminution des naissains de moules dans la région de Carleton (Canada), on a pensé un moment qu'elles pouvaient nuire à la mytiliculture. Une étude[3] a montré que ce n'était pas le cas. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite d'une « pullulation » de caprelles en 2003, qui a coïncidé avec une diminution des naissains de moules dans la région de Carleton (Canada), on a pensé un moment qu'elles pouvaient nuire à la mytiliculture. Une étude a montré que ce n'était pas le cas. 
 Exemple : Caprellinoides mayeri.
 </t>
         </is>
@@ -609,9 +627,11 @@
           <t>Sous-familles et genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (4 octobre 2014)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (4 octobre 2014) :
 </t>
         </is>
       </c>
